--- a/8月制作内容/系统文档/【蔡文吉】登录策划案.xlsx
+++ b/8月制作内容/系统文档/【蔡文吉】登录策划案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>登录界面</t>
   </si>
@@ -67,7 +67,16 @@
     <t>单击，展开下拉列表（图3）</t>
   </si>
   <si>
-    <t>区服分服列表</t>
+    <t>分区列表</t>
+  </si>
+  <si>
+    <t>上下拖动列表</t>
+  </si>
+  <si>
+    <t>分区选中状态</t>
+  </si>
+  <si>
+    <t>分区选中状态颜色标识</t>
   </si>
   <si>
     <t>区服列表</t>
@@ -76,11 +85,44 @@
     <t>区服选中状态</t>
   </si>
   <si>
+    <t>单击，选中区服为目标登陆服并关闭弹窗。</t>
+  </si>
+  <si>
     <t>区服选中状态颜色标识
-区服选项显示</t>
+区服选项显示区服名称、区服状态、区服新旧（状态及新旧由运营后台控制）</t>
+  </si>
+  <si>
+    <t>区服状态说明</t>
+  </si>
+  <si>
+    <t>显示区服3种状态图标区别</t>
+  </si>
+  <si>
+    <t>分区列表选项</t>
+  </si>
+  <si>
+    <t>单击，列表选项，选中区服为目标登陆服并关闭弹窗。</t>
   </si>
   <si>
     <t>显示该账号下创建过角色的区服列表</t>
+  </si>
+  <si>
+    <t>异常提示信息</t>
+  </si>
+  <si>
+    <t>维护提示</t>
+  </si>
+  <si>
+    <t>选中区服处于维护状态时，点击【开启旅程】，界面正在弹出提示信息“服务器正在维护”，3秒后向上淡出</t>
+  </si>
+  <si>
+    <t>限制注册提示</t>
+  </si>
+  <si>
+    <t>选中区服后台关闭注册时，如果玩家在该服务器未创建角色，点击【开启旅程】，界面正在弹出提示信息“服务器暂停创建角色”，3秒后向上淡出</t>
+  </si>
+  <si>
+    <t>提示信息示意图</t>
   </si>
 </sst>
 </file>
@@ -90,8 +132,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,44 +153,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +174,52 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -177,16 +228,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,32 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,20 +282,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,7 +297,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +369,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,127 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -481,24 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +556,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -529,6 +576,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,26 +603,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,148 +623,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2475,6 +2514,48 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1599565</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="11182350"/>
+          <a:ext cx="3180715" cy="5628640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2738,10 +2819,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:F50"/>
+  <dimension ref="A2:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2807,71 +2888,154 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43">
+    <row r="43" spans="2:6">
+      <c r="B43" s="3">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44">
+    <row r="44" spans="2:6">
+      <c r="B44" s="3">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45">
+    <row r="45" spans="2:6">
+      <c r="B45" s="3">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46">
+    <row r="46" spans="2:6">
+      <c r="B46" s="3">
         <v>5</v>
       </c>
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47">
+    <row r="47" spans="2:6">
+      <c r="B47" s="3">
         <v>6</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
-    <row r="48" ht="27" spans="2:5">
-      <c r="B48">
+    <row r="48" ht="40.5" spans="2:6">
+      <c r="B48" s="3">
         <v>7</v>
       </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="C48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49">
+    <row r="49" spans="2:6">
+      <c r="B49" s="3">
         <v>8</v>
       </c>
+      <c r="C49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:5">
-      <c r="B50">
+    <row r="50" spans="2:6">
+      <c r="B50" s="3">
         <v>9</v>
       </c>
-      <c r="E50" t="s">
-        <v>21</v>
+      <c r="C50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>2.1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>2.2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63">
+        <v>2.3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
